--- a/sample_data/workout.xlsx
+++ b/sample_data/workout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1438d9d2590bda62/個人用/健康管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwaoh\gpts-action-test\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{1E5CF2FB-9E1A-4266-98A9-B9F44C41D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D69BF4-CFC6-4072-9B86-60F87AD0378F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA5C44D-ED0D-44A7-9A77-F9D78F7709C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="195" windowWidth="26670" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="180" windowWidth="21960" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実績" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="803">
   <si>
     <t>日付</t>
   </si>
@@ -4612,6 +4612,77 @@
   </si>
   <si>
     <t>アブドミナルマシン</t>
+  </si>
+  <si>
+    <t>導入セット、フォーム確認</t>
+  </si>
+  <si>
+    <r>
+      <t>メインセット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>メインセット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>限界付近</t>
+  </si>
+  <si>
+    <t>パンプ狙いの追い込み</t>
+  </si>
+  <si>
+    <r>
+      <t>限界チャレンジ（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回目失速）</t>
+    </r>
+  </si>
+  <si>
+    <t>パンプ・収縮狙い</t>
+  </si>
+  <si>
+    <t>収縮強めに意識</t>
+  </si>
+  <si>
+    <t>限界チャレンジ</t>
   </si>
 </sst>
 </file>
@@ -4833,10 +4904,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5039,11 +5106,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J771"/>
+  <dimension ref="A1:J790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F736" sqref="F736"/>
+      <pane ySplit="1" topLeftCell="A764" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A772" sqref="A772:J790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28430,7 +28497,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="769" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="6">
         <v>45814</v>
       </c>
@@ -28459,7 +28526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="6">
         <v>45814</v>
       </c>
@@ -28488,7 +28555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="6">
         <v>45814</v>
       </c>
@@ -28515,6 +28582,614 @@
       </c>
       <c r="I771" s="8" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A772" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B772" t="s">
+        <v>35</v>
+      </c>
+      <c r="C772" t="s">
+        <v>259</v>
+      </c>
+      <c r="D772" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E772" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F772" t="s">
+        <v>38</v>
+      </c>
+      <c r="G772">
+        <v>10</v>
+      </c>
+      <c r="H772">
+        <v>1</v>
+      </c>
+      <c r="I772" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J772" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A773" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B773" t="s">
+        <v>35</v>
+      </c>
+      <c r="C773" t="s">
+        <v>259</v>
+      </c>
+      <c r="D773" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E773" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F773" t="s">
+        <v>217</v>
+      </c>
+      <c r="G773">
+        <v>8</v>
+      </c>
+      <c r="H773">
+        <v>1</v>
+      </c>
+      <c r="I773" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J773" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A774" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B774" t="s">
+        <v>35</v>
+      </c>
+      <c r="C774" t="s">
+        <v>259</v>
+      </c>
+      <c r="D774" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E774" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F774" t="s">
+        <v>217</v>
+      </c>
+      <c r="G774">
+        <v>8</v>
+      </c>
+      <c r="H774">
+        <v>1</v>
+      </c>
+      <c r="I774" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J774" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A775" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B775" t="s">
+        <v>35</v>
+      </c>
+      <c r="C775" t="s">
+        <v>259</v>
+      </c>
+      <c r="D775" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E775" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F775" t="s">
+        <v>217</v>
+      </c>
+      <c r="G775">
+        <v>7</v>
+      </c>
+      <c r="H775">
+        <v>1</v>
+      </c>
+      <c r="I775" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J775" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A776" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B776" t="s">
+        <v>35</v>
+      </c>
+      <c r="C776" t="s">
+        <v>259</v>
+      </c>
+      <c r="D776" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E776" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F776" t="s">
+        <v>404</v>
+      </c>
+      <c r="G776">
+        <v>12</v>
+      </c>
+      <c r="H776">
+        <v>1</v>
+      </c>
+      <c r="I776" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J776" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A777" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B777" t="s">
+        <v>35</v>
+      </c>
+      <c r="C777" t="s">
+        <v>259</v>
+      </c>
+      <c r="D777" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E777" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F777" t="s">
+        <v>401</v>
+      </c>
+      <c r="G777">
+        <v>8</v>
+      </c>
+      <c r="H777">
+        <v>1</v>
+      </c>
+      <c r="I777" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J777" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A778" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B778" t="s">
+        <v>35</v>
+      </c>
+      <c r="C778" t="s">
+        <v>259</v>
+      </c>
+      <c r="D778" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E778" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F778" t="s">
+        <v>401</v>
+      </c>
+      <c r="G778">
+        <v>8</v>
+      </c>
+      <c r="H778">
+        <v>1</v>
+      </c>
+      <c r="I778" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J778" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A779" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B779" t="s">
+        <v>35</v>
+      </c>
+      <c r="C779" t="s">
+        <v>259</v>
+      </c>
+      <c r="D779" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="E779" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F779" t="s">
+        <v>404</v>
+      </c>
+      <c r="G779">
+        <v>8</v>
+      </c>
+      <c r="H779">
+        <v>1</v>
+      </c>
+      <c r="I779" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J779" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A780" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B780" t="s">
+        <v>35</v>
+      </c>
+      <c r="C780" t="s">
+        <v>259</v>
+      </c>
+      <c r="D780" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E780" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F780" t="s">
+        <v>570</v>
+      </c>
+      <c r="G780">
+        <v>10</v>
+      </c>
+      <c r="H780">
+        <v>1</v>
+      </c>
+      <c r="I780" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J780" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A781" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B781" t="s">
+        <v>35</v>
+      </c>
+      <c r="C781" t="s">
+        <v>259</v>
+      </c>
+      <c r="D781" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E781" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F781" t="s">
+        <v>749</v>
+      </c>
+      <c r="G781">
+        <v>8</v>
+      </c>
+      <c r="H781">
+        <v>1</v>
+      </c>
+      <c r="I781" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J781" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B782" t="s">
+        <v>35</v>
+      </c>
+      <c r="C782" t="s">
+        <v>259</v>
+      </c>
+      <c r="D782" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E782" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F782" t="s">
+        <v>749</v>
+      </c>
+      <c r="G782">
+        <v>7</v>
+      </c>
+      <c r="H782">
+        <v>1</v>
+      </c>
+      <c r="I782" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J782" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B783" t="s">
+        <v>35</v>
+      </c>
+      <c r="C783" t="s">
+        <v>259</v>
+      </c>
+      <c r="D783" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E783" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F783" t="s">
+        <v>570</v>
+      </c>
+      <c r="G783">
+        <v>8</v>
+      </c>
+      <c r="H783">
+        <v>1</v>
+      </c>
+      <c r="I783" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J783" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A784" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B784" t="s">
+        <v>35</v>
+      </c>
+      <c r="C784" t="s">
+        <v>259</v>
+      </c>
+      <c r="D784" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E784" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F784" t="s">
+        <v>401</v>
+      </c>
+      <c r="G784">
+        <v>12</v>
+      </c>
+      <c r="H784">
+        <v>1</v>
+      </c>
+      <c r="I784" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J784" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B785" t="s">
+        <v>35</v>
+      </c>
+      <c r="C785" t="s">
+        <v>259</v>
+      </c>
+      <c r="D785" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E785" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F785" t="s">
+        <v>569</v>
+      </c>
+      <c r="G785">
+        <v>10</v>
+      </c>
+      <c r="H785">
+        <v>1</v>
+      </c>
+      <c r="I785" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J785" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A786" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B786" t="s">
+        <v>35</v>
+      </c>
+      <c r="C786" t="s">
+        <v>259</v>
+      </c>
+      <c r="D786" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E786" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F786" t="s">
+        <v>569</v>
+      </c>
+      <c r="G786">
+        <v>10</v>
+      </c>
+      <c r="H786">
+        <v>1</v>
+      </c>
+      <c r="I786" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J786" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A787" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B787" t="s">
+        <v>35</v>
+      </c>
+      <c r="C787" t="s">
+        <v>259</v>
+      </c>
+      <c r="D787" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E787" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F787" t="s">
+        <v>401</v>
+      </c>
+      <c r="G787">
+        <v>15</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+      <c r="I787" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J787" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A788" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B788" t="s">
+        <v>35</v>
+      </c>
+      <c r="C788" t="s">
+        <v>259</v>
+      </c>
+      <c r="D788" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E788" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F788" t="s">
+        <v>404</v>
+      </c>
+      <c r="G788">
+        <v>12</v>
+      </c>
+      <c r="H788">
+        <v>1</v>
+      </c>
+      <c r="I788" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J788" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A789" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B789" t="s">
+        <v>35</v>
+      </c>
+      <c r="C789" t="s">
+        <v>259</v>
+      </c>
+      <c r="D789" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E789" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F789" t="s">
+        <v>401</v>
+      </c>
+      <c r="G789">
+        <v>10</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+      <c r="I789" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J789" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A790" s="6">
+        <v>45817</v>
+      </c>
+      <c r="B790" t="s">
+        <v>35</v>
+      </c>
+      <c r="C790" t="s">
+        <v>259</v>
+      </c>
+      <c r="D790" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E790" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F790" t="s">
+        <v>401</v>
+      </c>
+      <c r="G790">
+        <v>6</v>
+      </c>
+      <c r="H790">
+        <v>1</v>
+      </c>
+      <c r="I790" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J790" s="8" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
